--- a/data/eBooks-main/current/blazor-for-web-forms-developers/Blazor-for-ASP-NET-Web-Forms-Developers.pdf.hwaifs/tables/py/gmft/df.tables-12.xlsx
+++ b/data/eBooks-main/current/blazor-for-web-forms-developers/Blazor-for-ASP-NET-Web-Forms-Developers.pdf.hwaifs/tables/py/gmft/df.tables-12.xlsx
@@ -422,11 +422,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>@layout MainLayout</t>
-        </is>
-      </c>
+      <c r="B1" t="inlineStr"/>
       <c r="C1" t="inlineStr"/>
     </row>
     <row r="2">
@@ -435,14 +431,10 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>You can specify the layout for all components in a folder and subfolders using an</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>*_Imports.razor* file.</t>
-        </is>
-      </c>
+          <t>@page "/counter"</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -450,10 +442,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>You can also specify a default layout for all your pages using the Router component.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>The route template parameter is required. Unlike ASP.NET Web Forms, the route to a component isn’t inferred from its file location (although that may be a feature added in the</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Blazor future).</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -461,12 +457,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Master Pages can define multiple content placeholders, but layouts in Blazor only have a property. This limitation of Blazor layout components will hopefully be addressed in a future</t>
+          <t>The route template syntax is the same basic syntax used for routing in ASP.NET Web parameters are specified in the template using braces. Blazor will bind route values to with the (case-insensitive).</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>single Body release.</t>
+          <t>Forms. Route component</t>
         </is>
       </c>
     </row>
@@ -476,14 +472,10 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Master Pages in ASP.NET Web Forms can be nested. That is, a Master Page may also use a Page. Layout components in Blazor may be nested too. You can apply a layout component to component. The contents of the inner layout will be rendered within the outer layout.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Master a layout</t>
-        </is>
-      </c>
+          <t>parameters same name @page "/product/{id}"</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -491,7 +483,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ChildLayout.razor</t>
+          <t>&lt;h1&gt;Product @Id&lt;/h1&gt;</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -502,7 +494,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>@layout MainLayout &lt;h2&gt;Child layout&lt;/h2&gt; &lt;div&gt;</t>
+          <t>@code { [Parameter] public string Id { get; set; }</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
